--- a/docs/StructureDefinition-VAAppointmentLocation.xlsx
+++ b/docs/StructureDefinition-VAAppointmentLocation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="306">
   <si>
     <t>Path</t>
   </si>
@@ -316,21 +316,21 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -339,17 +339,10 @@
     <t>Appointment.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -758,9 +751,6 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -847,7 +837,14 @@
     <t>Appointment.participant.actor.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Appointment.participant.actor.reference</t>
@@ -2099,7 +2096,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2118,15 +2115,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2163,14 +2162,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -2191,7 +2192,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2209,7 +2210,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2228,16 +2229,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2287,7 +2288,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2319,7 +2320,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2342,13 +2343,13 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2399,7 +2400,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2417,21 +2418,21 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2457,13 +2458,13 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2489,14 +2490,14 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>51</v>
@@ -2531,21 +2532,21 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2568,13 +2569,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2601,11 +2602,11 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2623,7 +2624,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2641,7 +2642,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2655,7 +2656,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2678,13 +2679,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2711,11 +2712,11 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2733,7 +2734,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2751,7 +2752,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2765,7 +2766,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2788,13 +2789,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2821,11 +2822,11 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2843,7 +2844,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2861,13 +2862,13 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2875,7 +2876,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2898,13 +2899,13 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2931,11 +2932,11 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -2953,7 +2954,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2971,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -2980,12 +2981,12 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3008,13 +3009,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3041,13 +3042,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3065,7 +3066,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3083,7 +3084,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3092,12 +3093,12 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3120,13 +3121,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3177,7 +3178,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3195,7 +3196,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3209,7 +3210,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3232,16 +3233,16 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3291,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3309,21 +3310,21 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3346,13 +3347,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3403,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3421,21 +3422,21 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3458,13 +3459,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3515,7 +3516,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3533,13 +3534,13 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3547,7 +3548,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3570,13 +3571,13 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3627,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3645,21 +3646,21 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3682,13 +3683,13 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3739,7 +3740,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3757,21 +3758,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3794,13 +3795,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3851,7 +3852,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3869,7 +3870,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3883,7 +3884,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3906,13 +3907,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3963,7 +3964,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3981,7 +3982,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4018,16 +4019,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4077,7 +4078,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4095,7 +4096,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4109,7 +4110,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4132,16 +4133,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4191,7 +4192,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4209,21 +4210,21 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4246,13 +4247,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4303,7 +4304,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4321,7 +4322,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4335,7 +4336,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4358,13 +4359,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4415,7 +4416,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -4427,27 +4428,27 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4470,13 +4471,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4527,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4545,7 +4546,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4559,11 +4560,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4582,16 +4583,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4641,7 +4642,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4659,7 +4660,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4673,11 +4674,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4696,16 +4697,16 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4755,7 +4756,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4787,7 +4788,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4810,16 +4811,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4848,10 +4849,10 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -4869,7 +4870,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4887,28 +4888,28 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>42</v>
@@ -4926,13 +4927,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4983,7 +4984,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4998,24 +4999,24 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5038,13 +5039,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5095,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5113,7 +5114,7 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5127,11 +5128,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5150,16 +5151,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5197,19 +5198,19 @@
         <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5227,7 +5228,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5241,7 +5242,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5264,16 +5265,16 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5323,7 +5324,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5332,7 +5333,7 @@
         <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
@@ -5355,14 +5356,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>42</v>
@@ -5380,16 +5381,16 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5439,7 +5440,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5454,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5471,7 +5472,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5494,16 +5495,16 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5553,7 +5554,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5585,7 +5586,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5611,10 +5612,10 @@
         <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5641,14 +5642,14 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5683,10 +5684,10 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -5697,7 +5698,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5723,10 +5724,10 @@
         <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5735,32 +5736,32 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -5795,21 +5796,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5832,16 +5833,16 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5891,7 +5892,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5909,16 +5910,16 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VAAppointmentLocation.xlsx
+++ b/docs/StructureDefinition-VAAppointmentLocation.xlsx
@@ -937,7 +937,7 @@
     <t>Participation status of the actor.</t>
   </si>
   <si>
-    <t>accepted</t>
+    <t>tentative</t>
   </si>
   <si>
     <t>The Participation status of an appointment.</t>
